--- a/data/trans_bre/Q23_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/Q23_R2-Provincia-trans_bre.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,42; 3,69</t>
+          <t>-21,91; 4,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-53,96; 11,94</t>
+          <t>-52,6; 12,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,87; -1,69</t>
+          <t>-22,44; -2,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,65; 0,27</t>
+          <t>-18,63; -0,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,94; -4,04</t>
+          <t>-48,85; -6,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,85; 0,8</t>
+          <t>-39,28; -1,07</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-27,53; -4,39</t>
+          <t>-27,98; -3,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,78; 3,67</t>
+          <t>-19,19; 3,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-58,35; -9,77</t>
+          <t>-58,84; -9,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-48,93; 12,97</t>
+          <t>-50,87; 10,34</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 0,77</t>
+          <t>-17,98; 0,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,76; -4,83</t>
+          <t>-20,15; -4,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-53,97; 0,84</t>
+          <t>-52,68; 2,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-47,9; -14,29</t>
+          <t>-49,2; -12,58</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 19,62</t>
+          <t>-5,34; 19,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,39; 4,81</t>
+          <t>-19,88; 5,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-27,42; 119,88</t>
+          <t>-20,35; 122,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-44,44; 14,92</t>
+          <t>-42,67; 16,61</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 4,53</t>
+          <t>-20,43; 5,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,27; 5,2</t>
+          <t>-19,88; 3,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,29; 14,41</t>
+          <t>-45,47; 16,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-48,64; 15,23</t>
+          <t>-49,42; 11,28</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,22; 0,44</t>
+          <t>-16,29; 0,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,36; -0,37</t>
+          <t>-15,85; -0,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-41,1; 1,53</t>
+          <t>-41,4; 1,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-39,35; -0,65</t>
+          <t>-39,78; -2,22</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1029,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 1,67</t>
+          <t>-13,35; 1,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 3,73</t>
+          <t>-9,96; 4,36</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-37,13; 5,52</t>
+          <t>-37,61; 4,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-32,13; 14,08</t>
+          <t>-31,7; 16,12</t>
         </is>
       </c>
     </row>
@@ -1089,22 +1089,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,45; -5,3</t>
+          <t>-12,37; -5,06</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,8; -4,75</t>
+          <t>-11,5; -4,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-33,22; -15,39</t>
+          <t>-33,71; -14,65</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-31,12; -13,55</t>
+          <t>-30,82; -13,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q23_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/Q23_R2-Provincia-trans_bre.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,91; 4,05</t>
+          <t>-22,33; 5,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-52,6; 12,2</t>
+          <t>-52,51; 18,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,44; -2,96</t>
+          <t>-23,26; -3,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,63; -0,33</t>
+          <t>-17,61; -0,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,85; -6,79</t>
+          <t>-49,39; -8,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-39,28; -1,07</t>
+          <t>-38,77; 0,45</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-27,98; -3,61</t>
+          <t>-26,55; -3,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,19; 3,07</t>
+          <t>-19,01; 2,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-58,84; -9,11</t>
+          <t>-58,33; -9,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-50,87; 10,34</t>
+          <t>-49,04; 7,93</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,98; 0,8</t>
+          <t>-17,38; 1,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,15; -4,57</t>
+          <t>-18,9; -4,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-52,68; 2,93</t>
+          <t>-50,95; 5,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-49,2; -12,58</t>
+          <t>-46,19; -13,55</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 19,66</t>
+          <t>-6,41; 19,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-19,88; 5,95</t>
+          <t>-20,76; 4,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-20,35; 122,06</t>
+          <t>-22,7; 123,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-42,67; 16,61</t>
+          <t>-45,35; 11,88</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,43; 5,77</t>
+          <t>-21,86; 3,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,88; 3,36</t>
+          <t>-19,49; 5,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-45,47; 16,91</t>
+          <t>-48,24; 9,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-49,42; 11,28</t>
+          <t>-47,35; 16,26</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 0,31</t>
+          <t>-15,9; 1,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,85; -0,75</t>
+          <t>-15,11; -0,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-41,4; 1,27</t>
+          <t>-40,77; 4,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-39,78; -2,22</t>
+          <t>-38,85; 0,01</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1029,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 1,19</t>
+          <t>-13,31; 1,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 4,36</t>
+          <t>-10,74; 4,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-37,61; 4,33</t>
+          <t>-36,85; 6,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-31,7; 16,12</t>
+          <t>-32,22; 15,76</t>
         </is>
       </c>
     </row>
@@ -1089,22 +1089,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,37; -5,06</t>
+          <t>-12,23; -5,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,5; -4,82</t>
+          <t>-11,68; -4,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-33,71; -14,65</t>
+          <t>-33,18; -15,57</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-30,82; -13,85</t>
+          <t>-31,22; -14,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q23_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/Q23_R2-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,33; 5,59</t>
+          <t>-22,42; 3,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-52,51; 18,09</t>
+          <t>-53,96; 11,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,26; -3,48</t>
+          <t>-22,87; -1,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,61; -0,09</t>
+          <t>-17,65; 0,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-49,39; -8,13</t>
+          <t>-48,94; -4,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,77; 0,45</t>
+          <t>-38,85; 0,8</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-26,55; -3,21</t>
+          <t>-27,53; -4,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,01; 2,24</t>
+          <t>-18,78; 3,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-58,33; -9,33</t>
+          <t>-58,35; -9,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-49,04; 7,93</t>
+          <t>-48,93; 12,97</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,38; 1,31</t>
+          <t>-17,73; 0,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,9; -4,79</t>
+          <t>-19,76; -4,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-50,95; 5,16</t>
+          <t>-53,97; 0,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-46,19; -13,55</t>
+          <t>-47,9; -14,29</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 19,99</t>
+          <t>-6,69; 19,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,76; 4,07</t>
+          <t>-20,39; 4,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,7; 123,29</t>
+          <t>-27,42; 119,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-45,35; 11,88</t>
+          <t>-44,44; 14,92</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,86; 3,38</t>
+          <t>-21,72; 4,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,49; 5,18</t>
+          <t>-20,27; 5,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,24; 9,87</t>
+          <t>-47,29; 14,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-47,35; 16,26</t>
+          <t>-48,64; 15,23</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,9; 1,64</t>
+          <t>-16,22; 0,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,11; -0,27</t>
+          <t>-15,36; -0,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-40,77; 4,9</t>
+          <t>-41,1; 1,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-38,85; 0,01</t>
+          <t>-39,35; -0,65</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1029,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 1,88</t>
+          <t>-12,97; 1,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 4,2</t>
+          <t>-10,51; 3,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-36,85; 6,69</t>
+          <t>-37,13; 5,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-32,22; 15,76</t>
+          <t>-32,13; 14,08</t>
         </is>
       </c>
     </row>
@@ -1089,22 +1089,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,23; -5,28</t>
+          <t>-12,45; -5,3</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,68; -4,78</t>
+          <t>-11,8; -4,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-33,18; -15,57</t>
+          <t>-33,22; -15,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-31,22; -14,0</t>
+          <t>-31,12; -13,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q23_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/Q23_R2-Provincia-trans_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,12 +521,16 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en el primer cuartil de la edad de comienzo de consumo de tabaco</t>
+          <t>Población cuyo comienzo de consumo de tabaco fue antes de los 15 años</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -529,12 +540,16 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +566,32 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -586,17 +625,37 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-8,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>-12,12</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>-23,16</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>-25,03%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-19,17%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-20,55%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-52,2%</t>
         </is>
       </c>
     </row>
@@ -614,17 +673,37 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,92; 4,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>-42,06; 16,65</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-36,22; -11,2</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>-53,96; 11,94</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-43,37; 10,63</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-66,86; 32,54</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-70,42; -28,55</t>
         </is>
       </c>
     </row>
@@ -651,12 +730,32 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>43,59</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>-6,7</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>-31,85%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>-22,29%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>103,34%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-20,11%</t>
         </is>
       </c>
     </row>
@@ -679,12 +778,32 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>-4,38; 72,84</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-15,84; 2,83</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>-48,94; -4,04</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>-38,85; 0,8</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1,94; 425,41</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-41,13; 11,19</t>
         </is>
       </c>
     </row>
@@ -711,12 +830,32 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>-2,84</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>-26,19</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>-37,12%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>-24,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-7,26%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-52,33%</t>
         </is>
       </c>
     </row>
@@ -739,12 +878,32 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>-55,68; 69,84</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-36,73; -16,36</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>-58,35; -9,77</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>-48,93; 12,97</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 376,16</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-65,77; -35,8</t>
         </is>
       </c>
     </row>
@@ -766,17 +925,37 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-12,56</t>
+          <t>-16,31</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>15,85</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>-0,77</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>-29,18%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-32,81%</t>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-47,06%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>40,09%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-3,32%</t>
         </is>
       </c>
     </row>
@@ -794,17 +973,37 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,76; -4,83</t>
+          <t>-25,11; -5,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>-17,94; 45,19</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-10,26; 10,08</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>-53,97; 0,84</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-47,9; -14,29</t>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-65,01; -17,72</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-37,91; 152,85</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-36,48; 54,13</t>
         </is>
       </c>
     </row>
@@ -831,12 +1030,32 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>-7,67</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,57</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>28,7%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>-20,17%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-12,55%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,48%</t>
         </is>
       </c>
     </row>
@@ -859,12 +1078,32 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-81,09; 78,45</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-12,24; 15,62</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>-27,42; 119,88</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>-44,44; 14,92</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-40,28; 94,77</t>
         </is>
       </c>
     </row>
@@ -891,12 +1130,32 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>-3,24</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>-10,81</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>-21,03%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>-20,93%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-8,85%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-25,79%</t>
         </is>
       </c>
     </row>
@@ -919,12 +1178,32 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-51,82; 74,99</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-23,31; 3,52</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>-47,29; 14,41</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>-48,64; 15,23</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 584,79</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-50,77; 9,2</t>
         </is>
       </c>
     </row>
@@ -951,12 +1230,32 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>-12,75</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>-9,01</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>-22,3%</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>-22,0%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-29,33%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-24,21%</t>
         </is>
       </c>
     </row>
@@ -979,12 +1278,32 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>-39,92; 14,25</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-17,22; 0,38</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
           <t>-41,1; 1,53</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>-39,35; -0,65</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-74,27; 48,94</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-41,65; 0,81</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1330,32 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
+          <t>-29,85</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1,81</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
           <t>-19,4%</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t>-11,1%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-43,26%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>13,96%</t>
         </is>
       </c>
     </row>
@@ -1039,12 +1378,32 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
+          <t>-64,25; 12,18</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-11,8; 14,36</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
           <t>-37,13; 5,52</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-32,13; 14,08</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-84,51; 21,23</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-48,37; 262,43</t>
         </is>
       </c>
     </row>
@@ -1071,12 +1430,32 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
+          <t>-4,68</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-5,09</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
           <t>-24,61%</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="H20" s="2" t="inlineStr">
         <is>
           <t>-22,61%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-9,3%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-17,4%</t>
         </is>
       </c>
     </row>
@@ -1099,12 +1478,32 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
+          <t>-17,98; 7,42</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-11,26; 6,87</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
           <t>-33,22; -15,39</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="H21" s="2" t="inlineStr">
         <is>
           <t>-31,12; -13,55</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-34,42; 16,23</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-32,72; 33,43</t>
         </is>
       </c>
     </row>
@@ -1118,15 +1517,15 @@
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/trans_bre/Q23_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/Q23_R2-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-12,12</t>
+          <t>-18,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-20,55%</t>
+          <t>-34,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,42; 3,69</t>
+          <t>-21,56; 4,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 4,25</t>
+          <t>-20,19; 3,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-42,06; 16,65</t>
+          <t>-29,3; -6,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-36,22; -11,2</t>
+          <t>-36,86; -11,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-53,96; 11,94</t>
+          <t>-51,55; 15,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-43,37; 10,63</t>
+          <t>-42,16; 8,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-66,86; 32,54</t>
+          <t>-51,71; -12,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-70,42; -28,55</t>
+          <t>-69,8; -29,39</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>43,59</t>
+          <t>-5,06</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>103,34%</t>
+          <t>-15,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,87; -1,69</t>
+          <t>-22,49; -3,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,65; 0,27</t>
+          <t>-18,06; -0,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 72,84</t>
+          <t>-13,63; 3,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 2,83</t>
+          <t>-16,49; 2,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,94; -4,04</t>
+          <t>-48,91; -10,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-38,85; 0,8</t>
+          <t>-39,68; -1,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,94; 425,41</t>
+          <t>-38,26; 12,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,13; 11,19</t>
+          <t>-43,11; 8,54</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-7,26%</t>
+          <t>-11,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-27,53; -4,39</t>
+          <t>-26,83; -3,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,78; 3,67</t>
+          <t>-18,76; 2,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-55,68; 69,84</t>
+          <t>-15,42; 7,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-36,73; -16,36</t>
+          <t>-36,93; -15,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-58,35; -9,77</t>
+          <t>-58,69; -9,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-48,93; 12,97</t>
+          <t>-48,14; 9,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 376,16</t>
+          <t>-42,94; 26,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-65,77; -35,8</t>
+          <t>-67,22; -33,88</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,85</t>
+          <t>-13,81</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>40,09%</t>
+          <t>-34,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 0,77</t>
+          <t>-18,09; 0,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,11; -5,62</t>
+          <t>-25,67; -6,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,94; 45,19</t>
+          <t>-22,82; -3,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 10,08</t>
+          <t>-10,11; 9,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,97; 0,84</t>
+          <t>-51,75; 1,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-65,01; -17,72</t>
+          <t>-66,51; -20,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-37,91; 152,85</t>
+          <t>-52,25; -9,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-36,48; 54,13</t>
+          <t>-35,95; 52,84</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,67</t>
+          <t>-4,11</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-12,55%</t>
+          <t>-12,8%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 19,62</t>
+          <t>-6,63; 19,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,39; 4,81</t>
+          <t>-20,53; 3,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-81,09; 78,45</t>
+          <t>-16,88; 8,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 15,62</t>
+          <t>-11,84; 15,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-27,42; 119,88</t>
+          <t>-26,42; 121,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-44,44; 14,92</t>
+          <t>-44,64; 10,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,66; 34,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-40,28; 94,77</t>
+          <t>-38,43; 89,3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,24</t>
+          <t>-14,81</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-8,85%</t>
+          <t>-52,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 4,53</t>
+          <t>-21,61; 4,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,27; 5,2</t>
+          <t>-19,64; 4,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,82; 74,99</t>
+          <t>-24,98; -3,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 3,52</t>
+          <t>-23,0; 2,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,29; 14,41</t>
+          <t>-48,03; 12,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,64; 15,23</t>
+          <t>-47,36; 15,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 584,79</t>
+          <t>-74,06; -8,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-50,77; 9,2</t>
+          <t>-49,42; 8,08</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-12,75</t>
+          <t>-9,78</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-29,33%</t>
+          <t>-29,6%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,22; 0,44</t>
+          <t>-16,74; 0,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,36; -0,37</t>
+          <t>-15,24; 0,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-39,92; 14,25</t>
+          <t>-17,9; -2,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,22; 0,38</t>
+          <t>-17,78; -0,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-41,1; 1,53</t>
+          <t>-43,61; 0,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-39,35; -0,65</t>
+          <t>-39,75; 0,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-74,27; 48,94</t>
+          <t>-48,87; -7,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-41,65; 0,81</t>
+          <t>-42,76; -2,28</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-29,85</t>
+          <t>-11,71</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-43,26%</t>
+          <t>-30,98%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 1,67</t>
+          <t>-14,13; 1,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 3,73</t>
+          <t>-10,29; 4,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-64,25; 12,18</t>
+          <t>-18,97; -3,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 14,36</t>
+          <t>-11,61; 14,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-37,13; 5,52</t>
+          <t>-40,64; 3,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-32,13; 14,08</t>
+          <t>-32,1; 17,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-84,51; 21,23</t>
+          <t>-46,21; -11,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-48,37; 262,43</t>
+          <t>-47,16; 279,01</t>
         </is>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-4,68</t>
+          <t>-10,27</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-9,3%</t>
+          <t>-28,33%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,45; -5,3</t>
+          <t>-12,2; -5,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,8; -4,75</t>
+          <t>-11,64; -4,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,98; 7,42</t>
+          <t>-13,68; -6,89</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 6,87</t>
+          <t>-11,57; 6,3</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-33,22; -15,39</t>
+          <t>-33,14; -15,1</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-31,12; -13,55</t>
+          <t>-30,95; -13,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-34,42; 16,23</t>
+          <t>-36,15; -19,5</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-32,72; 33,43</t>
+          <t>-33,07; 33,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q23_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/Q23_R2-Provincia-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,8 +523,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,15 +539,13 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +567,17 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
           <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -604,8 +590,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -635,27 +619,17 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-23,16</t>
+          <t>-25,03%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-25,03%</t>
+          <t>-19,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-19,17%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
           <t>-34,57%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-52,2%</t>
         </is>
       </c>
     </row>
@@ -683,27 +657,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-36,86; -11,2</t>
+          <t>-51,55; 15,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-51,55; 15,06</t>
+          <t>-42,16; 8,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-42,16; 8,72</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
           <t>-51,71; -12,78</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-69,8; -29,39</t>
         </is>
       </c>
     </row>
@@ -735,27 +699,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,7</t>
+          <t>-31,85%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-31,85%</t>
+          <t>-22,29%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-22,29%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
           <t>-15,7%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-20,11%</t>
         </is>
       </c>
     </row>
@@ -783,27 +737,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,49; 2,15</t>
+          <t>-48,91; -10,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,91; -10,3</t>
+          <t>-39,68; -1,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,68; -1,22</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
           <t>-38,26; 12,91</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-43,11; 8,54</t>
         </is>
       </c>
     </row>
@@ -835,27 +779,17 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-26,19</t>
+          <t>-37,12%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-37,12%</t>
+          <t>-24,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-24,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
           <t>-11,14%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-52,33%</t>
         </is>
       </c>
     </row>
@@ -883,27 +817,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-36,93; -15,49</t>
+          <t>-58,69; -9,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-58,69; -9,55</t>
+          <t>-48,14; 9,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-48,14; 9,16</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
           <t>-42,94; 26,61</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-67,22; -33,88</t>
         </is>
       </c>
     </row>
@@ -935,27 +859,17 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-29,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-29,18%</t>
+          <t>-47,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-47,06%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
           <t>-34,02%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-3,32%</t>
         </is>
       </c>
     </row>
@@ -983,27 +897,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 9,67</t>
+          <t>-51,75; 1,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,75; 1,88</t>
+          <t>-66,51; -20,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-66,51; -20,52</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
           <t>-52,25; -9,9</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-35,95; 52,84</t>
         </is>
       </c>
     </row>
@@ -1035,27 +939,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>28,7%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>28,7%</t>
+          <t>-20,17%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-20,17%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
           <t>-12,8%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>6,48%</t>
         </is>
       </c>
     </row>
@@ -1083,27 +977,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 15,4</t>
+          <t>-26,42; 121,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-26,42; 121,29</t>
+          <t>-44,64; 10,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-44,64; 10,55</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
           <t>-46,66; 34,53</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-38,43; 89,3</t>
         </is>
       </c>
     </row>
@@ -1135,27 +1019,17 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-10,81</t>
+          <t>-21,03%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-21,03%</t>
+          <t>-20,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-20,93%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
           <t>-52,1%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-25,79%</t>
         </is>
       </c>
     </row>
@@ -1183,27 +1057,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,0; 2,79</t>
+          <t>-48,03; 12,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,03; 12,85</t>
+          <t>-47,36; 15,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,36; 15,27</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
           <t>-74,06; -8,54</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-49,42; 8,08</t>
         </is>
       </c>
     </row>
@@ -1235,27 +1099,17 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-9,01</t>
+          <t>-22,3%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-22,3%</t>
+          <t>-22,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-22,0%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
           <t>-29,6%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-24,21%</t>
         </is>
       </c>
     </row>
@@ -1283,27 +1137,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,78; -0,74</t>
+          <t>-43,61; 0,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-43,61; 0,16</t>
+          <t>-39,75; 0,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-39,75; 0,61</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
           <t>-48,87; -7,13</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-42,76; -2,28</t>
         </is>
       </c>
     </row>
@@ -1335,27 +1179,17 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>-19,4%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-19,4%</t>
+          <t>-11,1%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-11,1%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
           <t>-30,98%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>13,96%</t>
         </is>
       </c>
     </row>
@@ -1383,27 +1217,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 14,24</t>
+          <t>-40,64; 3,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-40,64; 3,73</t>
+          <t>-32,1; 17,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-32,1; 17,56</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
           <t>-46,21; -11,32</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>-47,16; 279,01</t>
         </is>
       </c>
     </row>
@@ -1435,27 +1259,17 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-5,09</t>
+          <t>-24,61%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-24,61%</t>
+          <t>-22,61%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-22,61%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
           <t>-28,33%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-17,4%</t>
         </is>
       </c>
     </row>
@@ -1483,27 +1297,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 6,3</t>
+          <t>-33,14; -15,1</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-33,14; -15,1</t>
+          <t>-30,95; -13,36</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-30,95; -13,36</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
           <t>-36,15; -19,5</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-33,07; 33,2</t>
         </is>
       </c>
     </row>
@@ -1516,16 +1320,16 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
